--- a/Documents/Deliverable_3/CSwap_Deliverable_3_ProductBacklog.xlsx
+++ b/Documents/Deliverable_3/CSwap_Deliverable_3_ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School_Work\College\Computer_Science\COS420\Group\GitHub\Documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyc\Documents\GitHub\COS420_Project\Documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5849C3-A801-4019-906F-14E292C6071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF154E-F23E-4856-8E90-66F99E6330A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7970" yWindow="2290" windowWidth="28800" windowHeight="17030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -127,13 +127,16 @@
   </si>
   <si>
     <t>As an authorized user I want to be able to filter all listings by key terms so that I can narrow down my search.</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,8 +193,15 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +223,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -240,11 +255,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,9 +298,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -546,20 +566,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="71.375" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.58203125" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -599,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -619,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -639,7 +659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -659,7 +679,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -679,7 +699,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -692,14 +712,14 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -712,14 +732,14 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -739,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -759,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -779,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -799,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -819,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -839,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -859,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -879,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -899,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -919,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -939,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -959,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -979,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1019,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1039,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
